--- a/2018-2020數位課程已上架影片總表_20210917.xlsx
+++ b/2018-2020數位課程已上架影片總表_20210917.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\cchp stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1223FB7-3E41-415E-829D-7F9E3AF5B160}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FE3E4C-ED76-4D79-886C-E7565ECEDB72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="5955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">總表!$A$1:$E$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">總表!$A$1:$D$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="122">
   <si>
     <t>Planning, Implementation and
 Evaluation</t>
@@ -84,29 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Basic Module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Principle (follow the module)
-2. Case demonstration on diabetes mellitus, chronic kidney disease, cardiovascular disease, or physical activity, and response to the COVID-19 pandemic. (also integrate technology and knowledge core competencies)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Principle (follow the module)
-2.Case demonstration on diabetes mellitus, chronic kidney disease, cardiovascular disease, or physical activity, and response to the COVID-19 pandemic. (also integrate technology and knowledge core competencies)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Basic Module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Principle (follow the module)
-2. Case demonstration on diabetes mellitus, chronic kidney disease, cardiovascular disease, or physical activity, and response to the COVID-19 pandemic. (also integrate technology and knowledge core competencies)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.cchp.org.tw/page/video/show.aspx?num=40&amp;kind=8&amp;page=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>影片內容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.cchp.org.tw/page/video/index.aspx?kind=6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -313,11 +286,11 @@
   </si>
   <si>
     <t>3. Core Competency 3 - Special Competencies for the Asia-Pacific Region--Diversity and Inclusiveness</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Core Competency 3 - Special Competencies for the Asia-Pacific Region--Diversity and Inclusiveness</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>ABC of Health Promotion-1</t>
@@ -390,39 +363,39 @@
   </si>
   <si>
     <t>https://youtu.be/v0vNXIzgwEk</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>4. Core Competency 4 - Communication and Report Writing</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Tuo Yu Chen</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Core Competency 4 - Communication and Report Writing</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>What is communication?</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>How to achieve effective written communication?</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>How to write a policy brief or report?</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>How to write a journal manuscript?</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>How to write a research grant application?</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Course title</t>
@@ -478,7 +451,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -499,14 +472,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -743,37 +708,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -787,154 +737,139 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="46" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1224,175 +1159,144 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="64.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.25" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="8.875" style="1"/>
+    <col min="3" max="3" width="18.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A3" s="44"/>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="65" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45"/>
+      <c r="B5" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="66" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A6" s="45"/>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="6" t="s">
+    <row r="7" spans="1:4" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A8" s="47"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="126" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="D8" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="12" t="s">
+    <row r="10" spans="1:4" ht="63" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="43"/>
+      <c r="B10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
-      <c r="B5" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="126" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
-      <c r="B6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="126" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="126" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1405,15 +1309,15 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.18" right="0.16" top="0.35" bottom="0.48" header="0.2" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId10"/>
@@ -1440,810 +1344,810 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="25"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="H2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="29" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="B4" s="48">
+        <v>1</v>
+      </c>
+      <c r="C4" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D4" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="E4" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="F4" s="25">
+        <v>3.449074074074074E-3</v>
+      </c>
+      <c r="G4" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="H4" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="24">
+        <v>1.2</v>
+      </c>
+      <c r="D5" s="49"/>
+      <c r="E5" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="F5" s="25">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="G5" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="58">
-        <v>1</v>
-      </c>
-      <c r="C4" s="34">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D4" s="61" t="s">
+      <c r="H5" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="24">
+        <v>1.3</v>
+      </c>
+      <c r="D6" s="49"/>
+      <c r="E6" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="F6" s="25">
+        <v>2.2800925925925927E-3</v>
+      </c>
+      <c r="G6" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="35">
-        <v>3.449074074074074E-3</v>
-      </c>
-      <c r="G4" s="36" t="s">
+      <c r="H6" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="24">
+        <v>1.4</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="F7" s="25">
+        <v>3.5648148148148149E-3</v>
+      </c>
+      <c r="G7" s="26" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="34">
-        <v>1.2</v>
-      </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="34" t="s">
+      <c r="H7" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="D8" s="49"/>
+      <c r="E8" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="35">
-        <v>3.1250000000000002E-3</v>
-      </c>
-      <c r="G5" s="36" t="s">
+      <c r="F8" s="25">
+        <v>2.5347222222222221E-3</v>
+      </c>
+      <c r="G8" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="34">
-        <v>1.3</v>
-      </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="34" t="s">
+      <c r="H8" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="24">
+        <v>1.6</v>
+      </c>
+      <c r="D9" s="49"/>
+      <c r="E9" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="35">
-        <v>2.2800925925925927E-3</v>
-      </c>
-      <c r="G6" s="36" t="s">
+      <c r="F9" s="25">
+        <v>3.4953703703703705E-3</v>
+      </c>
+      <c r="G9" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="34">
-        <v>1.4</v>
-      </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="34" t="s">
+      <c r="H9" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="24">
+        <v>1.7</v>
+      </c>
+      <c r="D10" s="49"/>
+      <c r="E10" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F10" s="25">
+        <v>2.0370370370370369E-3</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="24">
+        <v>1.8</v>
+      </c>
+      <c r="D11" s="49"/>
+      <c r="E11" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="25">
+        <v>2.638888888888889E-3</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="24">
+        <v>1.9</v>
+      </c>
+      <c r="D12" s="49"/>
+      <c r="E12" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="25">
+        <v>4.0162037037037041E-3</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="49"/>
+      <c r="E13" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="25">
         <v>3.5648148148148149E-3</v>
       </c>
-      <c r="G7" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="34">
-        <v>1.5</v>
-      </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="35">
-        <v>2.5347222222222221E-3</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="34">
-        <v>1.6</v>
-      </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="35">
-        <v>3.4953703703703705E-3</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="34">
-        <v>1.7</v>
-      </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="35">
-        <v>2.0370370370370369E-3</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="34">
-        <v>1.8</v>
-      </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="34" t="s">
+      <c r="G13" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="35">
+      <c r="H13" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="24">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D14" s="49"/>
+      <c r="E14" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="25">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="24">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D15" s="50"/>
+      <c r="E15" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="25">
+        <v>2.9282407407407408E-3</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="48">
+        <v>2</v>
+      </c>
+      <c r="C17" s="24">
+        <v>2.1</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="30"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="49"/>
+      <c r="C18" s="24">
+        <v>2.1</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="25">
+        <v>3.9699074074074072E-3</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="24">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D19" s="49"/>
+      <c r="E19" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="25">
+        <v>7.0486111111111114E-3</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="24">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D20" s="49"/>
+      <c r="E20" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="25">
+        <v>8.5995370370370375E-3</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="24">
+        <v>2.4</v>
+      </c>
+      <c r="D21" s="49"/>
+      <c r="E21" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="25">
+        <v>5.138888888888889E-3</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="D22" s="49"/>
+      <c r="E22" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="25">
+        <v>5.9606481481481481E-3</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="24">
+        <v>2.6</v>
+      </c>
+      <c r="D23" s="50"/>
+      <c r="E23" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="25">
+        <v>7.743055555555556E-3</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="48">
+        <v>3</v>
+      </c>
+      <c r="C25" s="24">
+        <v>3.1</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="25">
+        <v>3.414351851851852E-3</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="24">
+        <v>3.2</v>
+      </c>
+      <c r="D26" s="49"/>
+      <c r="E26" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="25">
+        <v>2.7430555555555554E-3</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="24">
+        <v>3.3</v>
+      </c>
+      <c r="D27" s="49"/>
+      <c r="E27" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="25">
+        <v>3.0902777777777777E-3</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="24">
+        <v>3.4</v>
+      </c>
+      <c r="D28" s="49"/>
+      <c r="E28" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="25">
+        <v>1.0069444444444444E-3</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="24">
+        <v>3.5</v>
+      </c>
+      <c r="D29" s="49"/>
+      <c r="E29" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="25">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="24">
+        <v>3.6</v>
+      </c>
+      <c r="D30" s="49"/>
+      <c r="E30" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="25">
         <v>2.638888888888889E-3</v>
       </c>
-      <c r="G11" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="34">
-        <v>1.9</v>
-      </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="35">
-        <v>4.0162037037037041E-3</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="35">
-        <v>3.5648148148148149E-3</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="34">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="35">
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="34">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="D15" s="60"/>
-      <c r="E15" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="35">
-        <v>2.9282407407407408E-3</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="58">
-        <v>2</v>
-      </c>
-      <c r="C17" s="34">
-        <v>2.1</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="40"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="34">
-        <v>2.1</v>
-      </c>
-      <c r="D18" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="35">
-        <v>3.9699074074074072E-3</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="34">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D19" s="59"/>
-      <c r="E19" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="35">
-        <v>7.0486111111111114E-3</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" s="41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="34">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="35">
-        <v>8.5995370370370375E-3</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="34">
-        <v>2.4</v>
-      </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="35">
-        <v>5.138888888888889E-3</v>
-      </c>
-      <c r="G21" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="H21" s="41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="34">
-        <v>2.5</v>
-      </c>
-      <c r="D22" s="59"/>
-      <c r="E22" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="35">
-        <v>5.9606481481481481E-3</v>
-      </c>
-      <c r="G22" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="H22" s="41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="34">
-        <v>2.6</v>
-      </c>
-      <c r="D23" s="60"/>
-      <c r="E23" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="35">
-        <v>7.743055555555556E-3</v>
-      </c>
-      <c r="G23" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="H23" s="41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="58">
-        <v>3</v>
-      </c>
-      <c r="C25" s="34">
+      <c r="G30" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="24">
+        <v>3.7</v>
+      </c>
+      <c r="D31" s="49"/>
+      <c r="E31" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="25">
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="49"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="24">
+        <v>3.8</v>
+      </c>
+      <c r="D32" s="49"/>
+      <c r="E32" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="25">
+        <v>2.0023148148148148E-3</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="24">
+        <v>3.9</v>
+      </c>
+      <c r="D33" s="49"/>
+      <c r="E33" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" s="25">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="49"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="34">
         <v>3.1</v>
       </c>
-      <c r="D25" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="35">
-        <v>3.414351851851852E-3</v>
-      </c>
-      <c r="G25" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="H25" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="59"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="34">
-        <v>3.2</v>
-      </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="35">
-        <v>2.7430555555555554E-3</v>
-      </c>
-      <c r="G26" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="H26" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="34">
-        <v>3.3</v>
-      </c>
-      <c r="D27" s="59"/>
-      <c r="E27" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="F27" s="35">
-        <v>3.0902777777777777E-3</v>
-      </c>
-      <c r="G27" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="H27" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="59"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="34">
-        <v>3.4</v>
-      </c>
-      <c r="D28" s="59"/>
-      <c r="E28" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="F28" s="35">
-        <v>1.0069444444444444E-3</v>
-      </c>
-      <c r="G28" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="H28" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="34">
-        <v>3.5</v>
-      </c>
-      <c r="D29" s="59"/>
-      <c r="E29" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="F29" s="35">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="G29" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H29" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="59"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="34">
-        <v>3.6</v>
-      </c>
-      <c r="D30" s="59"/>
-      <c r="E30" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="35">
-        <v>2.638888888888889E-3</v>
-      </c>
-      <c r="G30" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="H30" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="59"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="34">
-        <v>3.7</v>
-      </c>
-      <c r="D31" s="59"/>
-      <c r="E31" s="42" t="s">
+      <c r="D34" s="49"/>
+      <c r="E34" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="35">
-        <v>3.7499999999999999E-3</v>
-      </c>
-      <c r="G31" s="43" t="s">
+      <c r="F34" s="25">
+        <v>2.9976851851851853E-3</v>
+      </c>
+      <c r="G34" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="H31" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="34">
-        <v>3.8</v>
-      </c>
-      <c r="D32" s="59"/>
-      <c r="E32" s="42" t="s">
+      <c r="H34" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="24">
+        <v>3.11</v>
+      </c>
+      <c r="D35" s="49"/>
+      <c r="E35" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="F32" s="35">
-        <v>2.0023148148148148E-3</v>
-      </c>
-      <c r="G32" s="43" t="s">
+      <c r="F35" s="25">
+        <v>3.460648148148148E-3</v>
+      </c>
+      <c r="G35" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="H32" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="34">
-        <v>3.9</v>
-      </c>
-      <c r="D33" s="59"/>
-      <c r="E33" s="42" t="s">
+      <c r="H35" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="50"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="24">
+        <v>3.12</v>
+      </c>
+      <c r="D36" s="50"/>
+      <c r="E36" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="F33" s="35">
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="G33" s="43" t="s">
+      <c r="F36" s="25">
+        <v>1.9444444444444444E-3</v>
+      </c>
+      <c r="G36" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="H33" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="44">
-        <v>3.1</v>
-      </c>
-      <c r="D34" s="59"/>
-      <c r="E34" s="42" t="s">
+      <c r="H36" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="F34" s="35">
-        <v>2.9976851851851853E-3</v>
-      </c>
-      <c r="G34" s="43" t="s">
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="H34" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="59"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="34">
-        <v>3.11</v>
-      </c>
-      <c r="D35" s="59"/>
-      <c r="E35" s="42" t="s">
+      <c r="B38" s="53">
+        <v>4</v>
+      </c>
+      <c r="C38" s="39">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D38" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="F35" s="35">
-        <v>3.460648148148148E-3</v>
-      </c>
-      <c r="G35" s="43" t="s">
+      <c r="E38" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="H35" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="60"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="34">
-        <v>3.12</v>
-      </c>
-      <c r="D36" s="60"/>
-      <c r="E36" s="42" t="s">
+      <c r="F38" s="25">
+        <v>5.0925925925925921E-3</v>
+      </c>
+      <c r="G38" s="41"/>
+      <c r="H38" s="42"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="52"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="39">
+        <v>4.2</v>
+      </c>
+      <c r="D39" s="54"/>
+      <c r="E39" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="35">
-        <v>1.9444444444444444E-3</v>
-      </c>
-      <c r="G36" s="45" t="s">
+      <c r="F39" s="25">
+        <v>8.564814814814815E-3</v>
+      </c>
+      <c r="G39" s="41"/>
+      <c r="H39" s="42"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="52"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="39">
+        <v>4.3</v>
+      </c>
+      <c r="D40" s="54"/>
+      <c r="E40" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="H36" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="46" t="s">
+      <c r="F40" s="25">
+        <v>4.2129629629629626E-3</v>
+      </c>
+      <c r="G40" s="41"/>
+      <c r="H40" s="42"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="52"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="39">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D41" s="54"/>
+      <c r="E41" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="62" t="s">
+      <c r="F41" s="25">
+        <v>8.4027777777777781E-3</v>
+      </c>
+      <c r="G41" s="41"/>
+      <c r="H41" s="42"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="52"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="39">
+        <v>4.5</v>
+      </c>
+      <c r="D42" s="54"/>
+      <c r="E42" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B38" s="63">
-        <v>4</v>
-      </c>
-      <c r="C38" s="49">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D38" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="E38" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="F38" s="35">
-        <v>5.0925925925925921E-3</v>
-      </c>
-      <c r="G38" s="51"/>
-      <c r="H38" s="52"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="62"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="49">
-        <v>4.2</v>
-      </c>
-      <c r="D39" s="64"/>
-      <c r="E39" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="F39" s="35">
-        <v>8.564814814814815E-3</v>
-      </c>
-      <c r="G39" s="51"/>
-      <c r="H39" s="52"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="62"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="49">
-        <v>4.3</v>
-      </c>
-      <c r="D40" s="64"/>
-      <c r="E40" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="F40" s="35">
-        <v>4.2129629629629626E-3</v>
-      </c>
-      <c r="G40" s="51"/>
-      <c r="H40" s="52"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="62"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="49">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D41" s="64"/>
-      <c r="E41" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="F41" s="35">
-        <v>8.4027777777777781E-3</v>
-      </c>
-      <c r="G41" s="51"/>
-      <c r="H41" s="52"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="62"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="49">
-        <v>4.5</v>
-      </c>
-      <c r="D42" s="64"/>
-      <c r="E42" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="F42" s="35">
+      <c r="F42" s="25">
         <v>7.4421296296296293E-3</v>
       </c>
-      <c r="G42" s="51"/>
-      <c r="H42" s="52"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="12">
